--- a/ope.ed.gov/2003/criminal-offenses-on-campus-virginia-colleges-and-universities-crime-2003.xlsx
+++ b/ope.ed.gov/2003/criminal-offenses-on-campus-virginia-colleges-and-universities-crime-2003.xlsx
@@ -13,16 +13,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Criminal Offenses - On campus</t>
-  </si>
-  <si>
-    <t>Survey year</t>
-  </si>
-  <si>
-    <t>Unitid</t>
-  </si>
-  <si>
-    <t>Institution name</t>
+    <t>Survey Year</t>
+  </si>
+  <si>
+    <t>UnitID</t>
+  </si>
+  <si>
+    <t>Institution Name</t>
   </si>
   <si>
     <t>Campus ID</t>
@@ -34,28 +31,28 @@
     <t>Institution Size</t>
   </si>
   <si>
-    <t>Murder/Non-negligent manslaughter</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible</t>
+    <t>Murder/Non-Negligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible</t>
   </si>
   <si>
     <t>Robbery</t>
   </si>
   <si>
-    <t>Aggravated assault</t>
+    <t>Aggravated Assault</t>
   </si>
   <si>
     <t>Burglary</t>
   </si>
   <si>
-    <t>Motor vehicle theft</t>
+    <t>Motor Vehicle Theft</t>
   </si>
   <si>
     <t>Arson</t>
@@ -1402,7 +1399,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -1417,52 +1414,94 @@
       <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
+      <c t="s" s="1" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>3</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>4</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="H1">
+        <v>7</v>
+      </c>
+      <c t="s" s="1" r="I1">
+        <v>8</v>
+      </c>
+      <c t="s" s="1" r="J1">
+        <v>9</v>
+      </c>
+      <c t="s" s="1" r="K1">
+        <v>10</v>
+      </c>
+      <c t="s" s="1" r="L1">
+        <v>11</v>
+      </c>
+      <c t="s" s="1" r="M1">
+        <v>12</v>
+      </c>
+      <c t="s" s="1" r="N1">
+        <v>13</v>
+      </c>
+      <c t="s" s="1" r="O1">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
-      <c t="s" s="1" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="1" r="B2">
-        <v>2</v>
+      <c s="1" r="A2">
+        <v>2003.0</v>
+      </c>
+      <c s="1" r="B2">
+        <v>419022.0</v>
       </c>
       <c t="s" s="1" r="C2">
-        <v>3</v>
-      </c>
-      <c t="s" s="1" r="D2">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c s="1" r="D2">
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>5</v>
-      </c>
-      <c t="s" s="1" r="F2">
-        <v>6</v>
-      </c>
-      <c t="s" s="1" r="G2">
-        <v>7</v>
-      </c>
-      <c t="s" s="1" r="H2">
-        <v>8</v>
-      </c>
-      <c t="s" s="1" r="I2">
-        <v>9</v>
-      </c>
-      <c t="s" s="1" r="J2">
-        <v>10</v>
-      </c>
-      <c t="s" s="1" r="K2">
-        <v>11</v>
-      </c>
-      <c t="s" s="1" r="L2">
-        <v>12</v>
-      </c>
-      <c t="s" s="1" r="M2">
-        <v>13</v>
-      </c>
-      <c t="s" s="1" r="N2">
-        <v>14</v>
-      </c>
-      <c t="s" s="1" r="O2">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c s="1" r="F2">
+        <v>595.0</v>
+      </c>
+      <c s="1" r="G2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="J2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="K2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="L2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="M2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="O2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -1473,13 +1512,13 @@
         <v>419022.0</v>
       </c>
       <c t="s" s="1" r="C3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c s="1" r="D3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c s="1" r="F3">
         <v>595.0</v>
@@ -1520,13 +1559,13 @@
         <v>419022.0</v>
       </c>
       <c t="s" s="1" r="C4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c s="1" r="D4">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c s="1" r="F4">
         <v>595.0</v>
@@ -1564,19 +1603,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B5">
-        <v>419022.0</v>
+        <v>231411.0</v>
       </c>
       <c t="s" s="1" r="C5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c s="1" r="D5">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c s="1" r="F5">
-        <v>595.0</v>
+        <v>568.0</v>
       </c>
       <c s="1" r="G5">
         <v>0.0</v>
@@ -1597,7 +1636,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M5">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="N5">
         <v>0.0</v>
@@ -1611,19 +1650,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B6">
-        <v>231411.0</v>
+        <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c s="1" r="D6">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c s="1" r="F6">
-        <v>568.0</v>
+        <v>769.0</v>
       </c>
       <c s="1" r="G6">
         <v>0.0</v>
@@ -1644,7 +1683,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M6">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N6">
         <v>0.0</v>
@@ -1661,13 +1700,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c s="1" r="D7">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c s="1" r="F7">
         <v>769.0</v>
@@ -1708,13 +1747,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c s="1" r="D8">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c s="1" r="F8">
         <v>769.0</v>
@@ -1755,13 +1794,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c s="1" r="D9">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c s="1" r="F9">
         <v>769.0</v>
@@ -1802,13 +1841,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c s="1" r="D10">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c s="1" r="F10">
         <v>769.0</v>
@@ -1849,13 +1888,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c s="1" r="D11">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c s="1" r="F11">
         <v>769.0</v>
@@ -1896,13 +1935,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C12">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c s="1" r="D12">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E12">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c s="1" r="F12">
         <v>769.0</v>
@@ -1943,13 +1982,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c s="1" r="D13">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c s="1" r="F13">
         <v>769.0</v>
@@ -1990,13 +2029,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C14">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c s="1" r="D14">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E14">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c s="1" r="F14">
         <v>769.0</v>
@@ -2023,7 +2062,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N14">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O14">
         <v>0.0</v>
@@ -2034,19 +2073,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B15">
-        <v>232797.0</v>
+        <v>432348.0</v>
       </c>
       <c t="s" s="1" r="C15">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c s="1" r="D15">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E15">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c s="1" r="F15">
-        <v>769.0</v>
+        <v>355.0</v>
       </c>
       <c s="1" r="G15">
         <v>0.0</v>
@@ -2070,7 +2109,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N15">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O15">
         <v>0.0</v>
@@ -2081,19 +2120,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B16">
-        <v>432348.0</v>
+        <v>419457.0</v>
       </c>
       <c t="s" s="1" r="C16">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c s="1" r="D16">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E16">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c s="1" r="F16">
-        <v>355.0</v>
+        <v>650.0</v>
       </c>
       <c s="1" r="G16">
         <v>0.0</v>
@@ -2128,19 +2167,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B17">
-        <v>419457.0</v>
+        <v>231420.0</v>
       </c>
       <c t="s" s="1" r="C17">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c s="1" r="D17">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E17">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c s="1" r="F17">
-        <v>650.0</v>
+        <v>2849.0</v>
       </c>
       <c s="1" r="G17">
         <v>0.0</v>
@@ -2161,7 +2200,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M17">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="N17">
         <v>0.0</v>
@@ -2175,19 +2214,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B18">
-        <v>231420.0</v>
+        <v>427973.0</v>
       </c>
       <c t="s" s="1" r="C18">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c s="1" r="D18">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E18">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c s="1" r="F18">
-        <v>2849.0</v>
+        <v>199.0</v>
       </c>
       <c s="1" r="G18">
         <v>0.0</v>
@@ -2208,7 +2247,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M18">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N18">
         <v>0.0</v>
@@ -2222,19 +2261,16 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B19">
-        <v>427973.0</v>
+        <v>445762.0</v>
       </c>
       <c t="s" s="1" r="C19">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c s="1" r="D19">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E19">
-        <v>49</v>
-      </c>
-      <c s="1" r="F19">
-        <v>199.0</v>
+        <v>50</v>
       </c>
       <c s="1" r="G19">
         <v>0.0</v>
@@ -2269,16 +2305,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B20">
-        <v>445762.0</v>
+        <v>366793.0</v>
       </c>
       <c t="s" s="1" r="C20">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c s="1" r="D20">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E20">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c s="1" r="F20">
+        <v>204.0</v>
       </c>
       <c s="1" r="G20">
         <v>0.0</v>
@@ -2302,7 +2341,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N20">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O20">
         <v>0.0</v>
@@ -2313,19 +2352,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B21">
-        <v>366793.0</v>
+        <v>231280.0</v>
       </c>
       <c t="s" s="1" r="C21">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c s="1" r="D21">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E21">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c s="1" r="F21">
-        <v>204.0</v>
+        <v>86.0</v>
       </c>
       <c s="1" r="G21">
         <v>0.0</v>
@@ -2349,7 +2388,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N21">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O21">
         <v>0.0</v>
@@ -2360,19 +2399,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B22">
-        <v>231280.0</v>
+        <v>231536.0</v>
       </c>
       <c t="s" s="1" r="C22">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c s="1" r="D22">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E22">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c s="1" r="F22">
-        <v>86.0</v>
+        <v>3678.0</v>
       </c>
       <c s="1" r="G22">
         <v>0.0</v>
@@ -2410,13 +2449,13 @@
         <v>231536.0</v>
       </c>
       <c t="s" s="1" r="C23">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c s="1" r="D23">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E23">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c s="1" r="F23">
         <v>3678.0</v>
@@ -2457,13 +2496,13 @@
         <v>231536.0</v>
       </c>
       <c t="s" s="1" r="C24">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c s="1" r="D24">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E24">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c s="1" r="F24">
         <v>3678.0</v>
@@ -2501,19 +2540,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B25">
-        <v>231536.0</v>
+        <v>231554.0</v>
       </c>
       <c t="s" s="1" r="C25">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c s="1" r="D25">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E25">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c s="1" r="F25">
-        <v>3678.0</v>
+        <v>731.0</v>
       </c>
       <c s="1" r="G25">
         <v>0.0</v>
@@ -2548,19 +2587,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B26">
-        <v>231554.0</v>
+        <v>233356.0</v>
       </c>
       <c t="s" s="1" r="C26">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c s="1" r="D26">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E26">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c s="1" r="F26">
-        <v>731.0</v>
+        <v>315.0</v>
       </c>
       <c s="1" r="G26">
         <v>0.0</v>
@@ -2595,19 +2634,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B27">
-        <v>233356.0</v>
+        <v>231572.0</v>
       </c>
       <c t="s" s="1" r="C27">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c s="1" r="D27">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E27">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c s="1" r="F27">
-        <v>315.0</v>
+        <v>44.0</v>
       </c>
       <c s="1" r="G27">
         <v>0.0</v>
@@ -2642,19 +2681,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B28">
-        <v>231572.0</v>
+        <v>231581.0</v>
       </c>
       <c t="s" s="1" r="C28">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c s="1" r="D28">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E28">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c s="1" r="F28">
-        <v>44.0</v>
+        <v>1403.0</v>
       </c>
       <c s="1" r="G28">
         <v>0.0</v>
@@ -2663,7 +2702,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I28">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="J28">
         <v>0.0</v>
@@ -2675,10 +2714,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M28">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="N28">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="O28">
         <v>0.0</v>
@@ -2689,19 +2728,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B29">
-        <v>231581.0</v>
+        <v>231828.0</v>
       </c>
       <c t="s" s="1" r="C29">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c s="1" r="D29">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E29">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c s="1" r="F29">
-        <v>1403.0</v>
+        <v>528.0</v>
       </c>
       <c s="1" r="G29">
         <v>0.0</v>
@@ -2710,7 +2749,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I29">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J29">
         <v>0.0</v>
@@ -2719,13 +2758,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L29">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M29">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N29">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O29">
         <v>0.0</v>
@@ -2736,19 +2775,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B30">
-        <v>231828.0</v>
+        <v>231785.0</v>
       </c>
       <c t="s" s="1" r="C30">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c s="1" r="D30">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E30">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c s="1" r="F30">
-        <v>528.0</v>
+        <v>417.0</v>
       </c>
       <c s="1" r="G30">
         <v>0.0</v>
@@ -2766,10 +2805,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L30">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M30">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="N30">
         <v>0.0</v>
@@ -2783,19 +2822,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B31">
-        <v>231785.0</v>
+        <v>441858.0</v>
       </c>
       <c t="s" s="1" r="C31">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c s="1" r="D31">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E31">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c s="1" r="F31">
-        <v>417.0</v>
+        <v>93.0</v>
       </c>
       <c s="1" r="G31">
         <v>0.0</v>
@@ -2810,13 +2849,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K31">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L31">
         <v>0.0</v>
       </c>
       <c s="1" r="M31">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N31">
         <v>0.0</v>
@@ -2830,19 +2869,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B32">
-        <v>441858.0</v>
+        <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C32">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c s="1" r="D32">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E32">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c s="1" r="F32">
-        <v>93.0</v>
+        <v>4582.0</v>
       </c>
       <c s="1" r="G32">
         <v>0.0</v>
@@ -2857,7 +2896,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K32">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L32">
         <v>0.0</v>
@@ -2880,13 +2919,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C33">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c s="1" r="D33">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E33">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c s="1" r="F33">
         <v>4582.0</v>
@@ -2927,13 +2966,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C34">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c s="1" r="D34">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E34">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c s="1" r="F34">
         <v>4582.0</v>
@@ -2971,19 +3010,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B35">
-        <v>231697.0</v>
+        <v>420024.0</v>
       </c>
       <c t="s" s="1" r="C35">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c s="1" r="D35">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E35">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c s="1" r="F35">
-        <v>4582.0</v>
+        <v>189.0</v>
       </c>
       <c s="1" r="G35">
         <v>0.0</v>
@@ -3018,19 +3057,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B36">
-        <v>420024.0</v>
+        <v>377449.0</v>
       </c>
       <c t="s" s="1" r="C36">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c s="1" r="D36">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E36">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c s="1" r="F36">
-        <v>189.0</v>
+        <v>251.0</v>
       </c>
       <c s="1" r="G36">
         <v>0.0</v>
@@ -3065,19 +3104,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B37">
-        <v>377449.0</v>
+        <v>377458.0</v>
       </c>
       <c t="s" s="1" r="C37">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c s="1" r="D37">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E37">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c s="1" r="F37">
-        <v>251.0</v>
+        <v>403.0</v>
       </c>
       <c s="1" r="G37">
         <v>0.0</v>
@@ -3112,19 +3151,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B38">
-        <v>377458.0</v>
+        <v>427982.0</v>
       </c>
       <c t="s" s="1" r="C38">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c s="1" r="D38">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E38">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c s="1" r="F38">
-        <v>403.0</v>
+        <v>296.0</v>
       </c>
       <c s="1" r="G38">
         <v>0.0</v>
@@ -3159,19 +3198,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B39">
-        <v>427982.0</v>
+        <v>440378.0</v>
       </c>
       <c t="s" s="1" r="C39">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c s="1" r="D39">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E39">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c s="1" r="F39">
-        <v>296.0</v>
+        <v>155.0</v>
       </c>
       <c s="1" r="G39">
         <v>0.0</v>
@@ -3206,19 +3245,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B40">
-        <v>440378.0</v>
+        <v>232016.0</v>
       </c>
       <c t="s" s="1" r="C40">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c s="1" r="D40">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E40">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c s="1" r="F40">
-        <v>155.0</v>
+        <v>247.0</v>
       </c>
       <c s="1" r="G40">
         <v>0.0</v>
@@ -3253,19 +3292,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B41">
-        <v>232016.0</v>
+        <v>427894.0</v>
       </c>
       <c t="s" s="1" r="C41">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c s="1" r="D41">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E41">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c s="1" r="F41">
-        <v>247.0</v>
+        <v>94.0</v>
       </c>
       <c s="1" r="G41">
         <v>0.0</v>
@@ -3300,19 +3339,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B42">
-        <v>427894.0</v>
+        <v>231712.0</v>
       </c>
       <c t="s" s="1" r="C42">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c s="1" r="D42">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E42">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c s="1" r="F42">
-        <v>94.0</v>
+        <v>4812.0</v>
       </c>
       <c s="1" r="G42">
         <v>0.0</v>
@@ -3321,7 +3360,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I42">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J42">
         <v>0.0</v>
@@ -3333,7 +3372,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M42">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="N42">
         <v>0.0</v>
@@ -3347,19 +3386,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B43">
-        <v>231712.0</v>
+        <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C43">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c s="1" r="D43">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E43">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c s="1" r="F43">
-        <v>4812.0</v>
+        <v>7749.0</v>
       </c>
       <c s="1" r="G43">
         <v>0.0</v>
@@ -3374,13 +3413,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K43">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L43">
         <v>0.0</v>
       </c>
       <c s="1" r="M43">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="N43">
         <v>0.0</v>
@@ -3394,19 +3433,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B44">
-        <v>231624.0</v>
+        <v>377403.0</v>
       </c>
       <c t="s" s="1" r="C44">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c s="1" r="D44">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E44">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c s="1" r="F44">
-        <v>7749.0</v>
+        <v>41.0</v>
       </c>
       <c s="1" r="G44">
         <v>0.0</v>
@@ -3415,19 +3454,19 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I44">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J44">
         <v>0.0</v>
       </c>
       <c s="1" r="K44">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L44">
         <v>0.0</v>
       </c>
       <c s="1" r="M44">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N44">
         <v>0.0</v>
@@ -3441,19 +3480,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B45">
-        <v>377403.0</v>
+        <v>231873.0</v>
       </c>
       <c t="s" s="1" r="C45">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c s="1" r="D45">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E45">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c s="1" r="F45">
-        <v>41.0</v>
+        <v>1446.0</v>
       </c>
       <c s="1" r="G45">
         <v>0.0</v>
@@ -3488,19 +3527,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B46">
-        <v>231873.0</v>
+        <v>231882.0</v>
       </c>
       <c t="s" s="1" r="C46">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c s="1" r="D46">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E46">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c s="1" r="F46">
-        <v>1446.0</v>
+        <v>4089.0</v>
       </c>
       <c s="1" r="G46">
         <v>0.0</v>
@@ -3535,19 +3574,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B47">
-        <v>231882.0</v>
+        <v>232724.0</v>
       </c>
       <c t="s" s="1" r="C47">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c s="1" r="D47">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E47">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c s="1" r="F47">
-        <v>4089.0</v>
+        <v>92.0</v>
       </c>
       <c s="1" r="G47">
         <v>0.0</v>
@@ -3582,19 +3621,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B48">
-        <v>232724.0</v>
+        <v>440536.0</v>
       </c>
       <c t="s" s="1" r="C48">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c s="1" r="D48">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E48">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c s="1" r="F48">
-        <v>92.0</v>
+        <v>869.0</v>
       </c>
       <c s="1" r="G48">
         <v>0.0</v>
@@ -3632,13 +3671,13 @@
         <v>440536.0</v>
       </c>
       <c t="s" s="1" r="C49">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c s="1" r="D49">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E49">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c s="1" r="F49">
         <v>869.0</v>
@@ -3676,19 +3715,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B50">
-        <v>440536.0</v>
+        <v>232043.0</v>
       </c>
       <c t="s" s="1" r="C50">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c s="1" r="D50">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E50">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c s="1" r="F50">
-        <v>869.0</v>
+        <v>1245.0</v>
       </c>
       <c s="1" r="G50">
         <v>0.0</v>
@@ -3709,13 +3748,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M50">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c s="1" r="N50">
         <v>0.0</v>
       </c>
       <c s="1" r="O50">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="51">
@@ -3723,19 +3762,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B51">
-        <v>232043.0</v>
+        <v>232052.0</v>
       </c>
       <c t="s" s="1" r="C51">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c s="1" r="D51">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E51">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c s="1" r="F51">
-        <v>1245.0</v>
+        <v>807.0</v>
       </c>
       <c s="1" r="G51">
         <v>0.0</v>
@@ -3756,13 +3795,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M51">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="N51">
         <v>0.0</v>
       </c>
       <c s="1" r="O51">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
@@ -3770,19 +3809,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B52">
-        <v>232052.0</v>
+        <v>231970.0</v>
       </c>
       <c t="s" s="1" r="C52">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c s="1" r="D52">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E52">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="1" r="F52">
-        <v>807.0</v>
+        <v>638.0</v>
       </c>
       <c s="1" r="G52">
         <v>0.0</v>
@@ -3803,7 +3842,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M52">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N52">
         <v>0.0</v>
@@ -3817,19 +3856,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B53">
-        <v>231970.0</v>
+        <v>248943.0</v>
       </c>
       <c t="s" s="1" r="C53">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c s="1" r="D53">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E53">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c s="1" r="F53">
-        <v>638.0</v>
+        <v>1167.0</v>
       </c>
       <c s="1" r="G53">
         <v>0.0</v>
@@ -3867,13 +3906,13 @@
         <v>248943.0</v>
       </c>
       <c t="s" s="1" r="C54">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c s="1" r="D54">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E54">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c s="1" r="F54">
         <v>1167.0</v>
@@ -3911,19 +3950,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B55">
-        <v>248943.0</v>
+        <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C55">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c s="1" r="D55">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E55">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c s="1" r="F55">
-        <v>1167.0</v>
+        <v>3346.0</v>
       </c>
       <c s="1" r="G55">
         <v>0.0</v>
@@ -3961,13 +4000,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C56">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c s="1" r="D56">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E56">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c s="1" r="F56">
         <v>3346.0</v>
@@ -4008,13 +4047,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C57">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c s="1" r="D57">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E57">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c s="1" r="F57">
         <v>3346.0</v>
@@ -4055,13 +4094,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C58">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c s="1" r="D58">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E58">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c s="1" r="F58">
         <v>3346.0</v>
@@ -4102,13 +4141,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C59">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c s="1" r="D59">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E59">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c s="1" r="F59">
         <v>3346.0</v>
@@ -4149,13 +4188,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C60">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c s="1" r="D60">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E60">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c s="1" r="F60">
         <v>3346.0</v>
@@ -4196,13 +4235,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C61">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c s="1" r="D61">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E61">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c s="1" r="F61">
         <v>3346.0</v>
@@ -4243,13 +4282,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C62">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c s="1" r="D62">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E62">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c s="1" r="F62">
         <v>3346.0</v>
@@ -4290,13 +4329,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C63">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c s="1" r="D63">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E63">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c s="1" r="F63">
         <v>3346.0</v>
@@ -4334,19 +4373,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B64">
-        <v>248934.0</v>
+        <v>442806.0</v>
       </c>
       <c t="s" s="1" r="C64">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c s="1" r="D64">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E64">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c s="1" r="F64">
-        <v>3346.0</v>
+        <v>154.0</v>
       </c>
       <c s="1" r="G64">
         <v>0.0</v>
@@ -4381,19 +4420,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B65">
-        <v>442806.0</v>
+        <v>232025.0</v>
       </c>
       <c t="s" s="1" r="C65">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c s="1" r="D65">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E65">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c s="1" r="F65">
-        <v>154.0</v>
+        <v>927.0</v>
       </c>
       <c s="1" r="G65">
         <v>0.0</v>
@@ -4414,7 +4453,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M65">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="N65">
         <v>0.0</v>
@@ -4428,19 +4467,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B66">
-        <v>232025.0</v>
+        <v>437149.0</v>
       </c>
       <c t="s" s="1" r="C66">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c s="1" r="D66">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E66">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c s="1" r="F66">
-        <v>927.0</v>
+        <v>56.0</v>
       </c>
       <c s="1" r="G66">
         <v>0.0</v>
@@ -4461,7 +4500,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M66">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N66">
         <v>0.0</v>
@@ -4475,19 +4514,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B67">
-        <v>437149.0</v>
+        <v>442310.0</v>
       </c>
       <c t="s" s="1" r="C67">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c s="1" r="D67">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E67">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c s="1" r="F67">
-        <v>56.0</v>
+        <v>728.0</v>
       </c>
       <c s="1" r="G67">
         <v>0.0</v>
@@ -4522,19 +4561,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B68">
-        <v>442310.0</v>
+        <v>438647.0</v>
       </c>
       <c t="s" s="1" r="C68">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c s="1" r="D68">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E68">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c s="1" r="F68">
-        <v>728.0</v>
+        <v>837.0</v>
       </c>
       <c s="1" r="G68">
         <v>0.0</v>
@@ -4569,19 +4608,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B69">
-        <v>438647.0</v>
+        <v>232502.0</v>
       </c>
       <c t="s" s="1" r="C69">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c s="1" r="D69">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E69">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c s="1" r="F69">
-        <v>837.0</v>
+        <v>957.0</v>
       </c>
       <c s="1" r="G69">
         <v>0.0</v>
@@ -4616,19 +4655,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B70">
-        <v>232502.0</v>
+        <v>232089.0</v>
       </c>
       <c t="s" s="1" r="C70">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c s="1" r="D70">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E70">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c s="1" r="F70">
-        <v>957.0</v>
+        <v>954.0</v>
       </c>
       <c s="1" r="G70">
         <v>0.0</v>
@@ -4637,7 +4676,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I70">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="J70">
         <v>0.0</v>
@@ -4649,13 +4688,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M70">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c s="1" r="N70">
         <v>0.0</v>
       </c>
       <c s="1" r="O70">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="71">
@@ -4663,19 +4702,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B71">
-        <v>232089.0</v>
+        <v>233329.0</v>
       </c>
       <c t="s" s="1" r="C71">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c s="1" r="D71">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E71">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c s="1" r="F71">
-        <v>954.0</v>
+        <v>235.0</v>
       </c>
       <c s="1" r="G71">
         <v>0.0</v>
@@ -4684,7 +4723,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I71">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J71">
         <v>0.0</v>
@@ -4696,13 +4735,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M71">
-        <v>28.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N71">
         <v>0.0</v>
       </c>
       <c s="1" r="O71">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="72">
@@ -4710,19 +4749,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B72">
-        <v>233329.0</v>
+        <v>382957.0</v>
       </c>
       <c t="s" s="1" r="C72">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c s="1" r="D72">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E72">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c s="1" r="F72">
-        <v>235.0</v>
+        <v>81.0</v>
       </c>
       <c s="1" r="G72">
         <v>0.0</v>
@@ -4757,19 +4796,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B73">
-        <v>382957.0</v>
+        <v>232186.0</v>
       </c>
       <c t="s" s="1" r="C73">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c s="1" r="D73">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E73">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c s="1" r="F73">
-        <v>81.0</v>
+        <v>28246.0</v>
       </c>
       <c s="1" r="G73">
         <v>0.0</v>
@@ -4778,25 +4817,25 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I73">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c s="1" r="J73">
         <v>0.0</v>
       </c>
       <c s="1" r="K73">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L73">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="M73">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c s="1" r="N73">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c s="1" r="O73">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="74">
@@ -4804,19 +4843,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B74">
-        <v>232186.0</v>
+        <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C74">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c s="1" r="D74">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E74">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c s="1" r="F74">
-        <v>28246.0</v>
+        <v>4520.0</v>
       </c>
       <c s="1" r="G74">
         <v>0.0</v>
@@ -4825,25 +4864,25 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I74">
-        <v>16.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J74">
         <v>0.0</v>
       </c>
       <c s="1" r="K74">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L74">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M74">
-        <v>19.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N74">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O74">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="75">
@@ -4854,13 +4893,13 @@
         <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C75">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c s="1" r="D75">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E75">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c s="1" r="F75">
         <v>4520.0</v>
@@ -4884,7 +4923,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M75">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N75">
         <v>0.0</v>
@@ -4898,19 +4937,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B76">
-        <v>232195.0</v>
+        <v>406495.0</v>
       </c>
       <c t="s" s="1" r="C76">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c s="1" r="D76">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E76">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c s="1" r="F76">
-        <v>4520.0</v>
+        <v>283.0</v>
       </c>
       <c s="1" r="G76">
         <v>0.0</v>
@@ -4945,19 +4984,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B77">
-        <v>406495.0</v>
+        <v>232256.0</v>
       </c>
       <c t="s" s="1" r="C77">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c s="1" r="D77">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E77">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c s="1" r="F77">
-        <v>283.0</v>
+        <v>1039.0</v>
       </c>
       <c s="1" r="G77">
         <v>0.0</v>
@@ -4966,7 +5005,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I77">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J77">
         <v>0.0</v>
@@ -4978,7 +5017,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M77">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c s="1" r="N77">
         <v>0.0</v>
@@ -4992,19 +5031,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B78">
-        <v>232256.0</v>
+        <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C78">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c s="1" r="D78">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E78">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c s="1" r="F78">
-        <v>1039.0</v>
+        <v>5797.0</v>
       </c>
       <c s="1" r="G78">
         <v>0.0</v>
@@ -5013,22 +5052,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I78">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J78">
         <v>0.0</v>
       </c>
       <c s="1" r="K78">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="L78">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M78">
-        <v>30.0</v>
+        <v>49.0</v>
       </c>
       <c s="1" r="N78">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="O78">
         <v>0.0</v>
@@ -5042,13 +5081,13 @@
         <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C79">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c s="1" r="D79">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E79">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c s="1" r="F79">
         <v>5797.0</v>
@@ -5066,16 +5105,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K79">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L79">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M79">
-        <v>49.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N79">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O79">
         <v>0.0</v>
@@ -5089,13 +5128,13 @@
         <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C80">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c s="1" r="D80">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E80">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c s="1" r="F80">
         <v>5797.0</v>
@@ -5133,19 +5172,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B81">
-        <v>232265.0</v>
+        <v>431266.0</v>
       </c>
       <c t="s" s="1" r="C81">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c s="1" r="D81">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E81">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c s="1" r="F81">
-        <v>5797.0</v>
+        <v>115.0</v>
       </c>
       <c s="1" r="G81">
         <v>0.0</v>
@@ -5180,19 +5219,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B82">
-        <v>431266.0</v>
+        <v>233189.0</v>
       </c>
       <c t="s" s="1" r="C82">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c s="1" r="D82">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E82">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c s="1" r="F82">
-        <v>115.0</v>
+        <v>276.0</v>
       </c>
       <c s="1" r="G82">
         <v>0.0</v>
@@ -5207,7 +5246,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K82">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="L82">
         <v>0.0</v>
@@ -5227,19 +5266,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B83">
-        <v>233189.0</v>
+        <v>377421.0</v>
       </c>
       <c t="s" s="1" r="C83">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c s="1" r="D83">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E83">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c s="1" r="F83">
-        <v>276.0</v>
+        <v>44.0</v>
       </c>
       <c s="1" r="G83">
         <v>0.0</v>
@@ -5254,7 +5293,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K83">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L83">
         <v>0.0</v>
@@ -5274,19 +5313,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B84">
-        <v>377421.0</v>
+        <v>232292.0</v>
       </c>
       <c t="s" s="1" r="C84">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c s="1" r="D84">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E84">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c s="1" r="F84">
-        <v>44.0</v>
+        <v>47.0</v>
       </c>
       <c s="1" r="G84">
         <v>0.0</v>
@@ -5321,19 +5360,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B85">
-        <v>232292.0</v>
+        <v>232308.0</v>
       </c>
       <c t="s" s="1" r="C85">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c s="1" r="D85">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E85">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="1" r="F85">
-        <v>47.0</v>
+        <v>1090.0</v>
       </c>
       <c s="1" r="G85">
         <v>0.0</v>
@@ -5351,10 +5390,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L85">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M85">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="N85">
         <v>0.0</v>
@@ -5368,19 +5407,16 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B86">
-        <v>232308.0</v>
+        <v>445869.0</v>
       </c>
       <c t="s" s="1" r="C86">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c s="1" r="D86">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E86">
-        <v>183</v>
-      </c>
-      <c s="1" r="F86">
-        <v>1090.0</v>
+        <v>184</v>
       </c>
       <c s="1" r="G86">
         <v>0.0</v>
@@ -5398,10 +5434,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L86">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M86">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N86">
         <v>0.0</v>
@@ -5415,16 +5451,16 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B87">
-        <v>445869.0</v>
+        <v>418977.0</v>
       </c>
       <c t="s" s="1" r="C87">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c s="1" r="D87">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E87">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c s="1" r="G87">
         <v>0.0</v>
@@ -5445,7 +5481,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M87">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N87">
         <v>0.0</v>
@@ -5459,16 +5495,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B88">
-        <v>418977.0</v>
+        <v>441964.0</v>
       </c>
       <c t="s" s="1" r="C88">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c s="1" r="D88">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E88">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c s="1" r="F88">
+        <v>165.0</v>
       </c>
       <c s="1" r="G88">
         <v>0.0</v>
@@ -5503,19 +5542,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B89">
-        <v>441964.0</v>
+        <v>368601.0</v>
       </c>
       <c t="s" s="1" r="C89">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c s="1" r="D89">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E89">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c s="1" r="F89">
-        <v>165.0</v>
+        <v>474.0</v>
       </c>
       <c s="1" r="G89">
         <v>0.0</v>
@@ -5536,7 +5575,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M89">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N89">
         <v>0.0</v>
@@ -5550,19 +5589,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B90">
-        <v>368601.0</v>
+        <v>437051.0</v>
       </c>
       <c t="s" s="1" r="C90">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c s="1" r="D90">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E90">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c s="1" r="F90">
-        <v>474.0</v>
+        <v>315.0</v>
       </c>
       <c s="1" r="G90">
         <v>0.0</v>
@@ -5583,7 +5622,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M90">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N90">
         <v>0.0</v>
@@ -5597,19 +5636,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B91">
-        <v>437051.0</v>
+        <v>441955.0</v>
       </c>
       <c t="s" s="1" r="C91">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c s="1" r="D91">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E91">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c s="1" r="F91">
-        <v>315.0</v>
+        <v>363.0</v>
       </c>
       <c s="1" r="G91">
         <v>0.0</v>
@@ -5644,19 +5683,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B92">
-        <v>441955.0</v>
+        <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C92">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="1" r="D92">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E92">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c s="1" r="F92">
-        <v>363.0</v>
+        <v>11132.0</v>
       </c>
       <c s="1" r="G92">
         <v>0.0</v>
@@ -5694,13 +5733,13 @@
         <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C93">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c s="1" r="D93">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E93">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c s="1" r="F93">
         <v>11132.0</v>
@@ -5718,16 +5757,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K93">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L93">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M93">
         <v>0.0</v>
       </c>
       <c s="1" r="N93">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="O93">
         <v>0.0</v>
@@ -5741,13 +5780,13 @@
         <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C94">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c s="1" r="D94">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E94">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c s="1" r="F94">
         <v>11132.0</v>
@@ -5765,19 +5804,19 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K94">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L94">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M94">
         <v>0.0</v>
       </c>
       <c s="1" r="N94">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O94">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="95">
@@ -5785,19 +5824,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B95">
-        <v>232414.0</v>
+        <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C95">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c s="1" r="D95">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E95">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c s="1" r="F95">
-        <v>11132.0</v>
+        <v>16203.0</v>
       </c>
       <c s="1" r="G95">
         <v>0.0</v>
@@ -5806,7 +5845,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I95">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="J95">
         <v>0.0</v>
@@ -5815,13 +5854,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L95">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="M95">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c s="1" r="N95">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O95">
         <v>1.0</v>
@@ -5835,13 +5874,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C96">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c s="1" r="D96">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E96">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c s="1" r="F96">
         <v>16203.0</v>
@@ -5853,7 +5892,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I96">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J96">
         <v>0.0</v>
@@ -5862,16 +5901,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L96">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M96">
-        <v>18.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N96">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O96">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="97">
@@ -5882,13 +5921,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C97">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c s="1" r="D97">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E97">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c s="1" r="F97">
         <v>16203.0</v>
@@ -5926,19 +5965,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B98">
-        <v>232423.0</v>
+        <v>231837.0</v>
       </c>
       <c t="s" s="1" r="C98">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c s="1" r="D98">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E98">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c s="1" r="F98">
-        <v>16203.0</v>
+        <v>635.0</v>
       </c>
       <c s="1" r="G98">
         <v>0.0</v>
@@ -5976,13 +6015,13 @@
         <v>231837.0</v>
       </c>
       <c t="s" s="1" r="C99">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c s="1" r="D99">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E99">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c s="1" r="F99">
         <v>635.0</v>
@@ -6020,19 +6059,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B100">
-        <v>231837.0</v>
+        <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C100">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c s="1" r="D100">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E100">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c s="1" r="F100">
-        <v>635.0</v>
+        <v>6054.0</v>
       </c>
       <c s="1" r="G100">
         <v>0.0</v>
@@ -6070,13 +6109,13 @@
         <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C101">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c s="1" r="D101">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E101">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c s="1" r="F101">
         <v>6054.0</v>
@@ -6117,13 +6156,13 @@
         <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C102">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c s="1" r="D102">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E102">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c s="1" r="F102">
         <v>6054.0</v>
@@ -6161,19 +6200,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B103">
-        <v>232450.0</v>
+        <v>232469.0</v>
       </c>
       <c t="s" s="1" r="C103">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c s="1" r="D103">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E103">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c s="1" r="F103">
-        <v>6054.0</v>
+        <v>831.0</v>
       </c>
       <c s="1" r="G103">
         <v>0.0</v>
@@ -6194,10 +6233,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M103">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N103">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O103">
         <v>0.0</v>
@@ -6208,19 +6247,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B104">
-        <v>232469.0</v>
+        <v>232557.0</v>
       </c>
       <c t="s" s="1" r="C104">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c s="1" r="D104">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E104">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c s="1" r="F104">
-        <v>831.0</v>
+        <v>9050.0</v>
       </c>
       <c s="1" r="G104">
         <v>0.0</v>
@@ -6235,19 +6274,19 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K104">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L104">
         <v>0.0</v>
       </c>
       <c s="1" r="M104">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c s="1" r="N104">
         <v>1.0</v>
       </c>
       <c s="1" r="O104">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="105">
@@ -6255,19 +6294,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B105">
-        <v>232557.0</v>
+        <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C105">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c s="1" r="D105">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E105">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c s="1" r="F105">
-        <v>9050.0</v>
+        <v>4252.0</v>
       </c>
       <c s="1" r="G105">
         <v>0.0</v>
@@ -6276,25 +6315,25 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I105">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c s="1" r="J105">
         <v>0.0</v>
       </c>
       <c s="1" r="K105">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L105">
         <v>0.0</v>
       </c>
       <c s="1" r="M105">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N105">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O105">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="106">
@@ -6305,13 +6344,13 @@
         <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C106">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c s="1" r="D106">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E106">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c s="1" r="F106">
         <v>4252.0</v>
@@ -6323,7 +6362,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I106">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J106">
         <v>0.0</v>
@@ -6335,7 +6374,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M106">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N106">
         <v>0.0</v>
@@ -6349,19 +6388,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B107">
-        <v>232566.0</v>
+        <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C107">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c s="1" r="D107">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E107">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c s="1" r="F107">
-        <v>4252.0</v>
+        <v>5070.0</v>
       </c>
       <c s="1" r="G107">
         <v>0.0</v>
@@ -6399,13 +6438,13 @@
         <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C108">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c s="1" r="D108">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E108">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c s="1" r="F108">
         <v>5070.0</v>
@@ -6443,29 +6482,29 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B109">
-        <v>232575.0</v>
+        <v>232609.0</v>
       </c>
       <c t="s" s="1" r="C109">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c s="1" r="D109">
+        <v>1.0</v>
+      </c>
+      <c t="s" s="1" r="E109">
+        <v>230</v>
+      </c>
+      <c s="1" r="F109">
+        <v>2009.0</v>
+      </c>
+      <c s="1" r="G109">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H109">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I109">
         <v>2.0</v>
       </c>
-      <c t="s" s="1" r="E109">
-        <v>229</v>
-      </c>
-      <c s="1" r="F109">
-        <v>5070.0</v>
-      </c>
-      <c s="1" r="G109">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H109">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I109">
-        <v>0.0</v>
-      </c>
       <c s="1" r="J109">
         <v>0.0</v>
       </c>
@@ -6473,10 +6512,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L109">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M109">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N109">
         <v>0.0</v>
@@ -6490,19 +6529,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B110">
-        <v>232609.0</v>
+        <v>232618.0</v>
       </c>
       <c t="s" s="1" r="C110">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c s="1" r="D110">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E110">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c s="1" r="F110">
-        <v>2009.0</v>
+        <v>158.0</v>
       </c>
       <c s="1" r="G110">
         <v>0.0</v>
@@ -6511,7 +6550,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I110">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J110">
         <v>0.0</v>
@@ -6520,10 +6559,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L110">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M110">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N110">
         <v>0.0</v>
@@ -6537,19 +6576,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B111">
-        <v>232618.0</v>
+        <v>232672.0</v>
       </c>
       <c t="s" s="1" r="C111">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c s="1" r="D111">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E111">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c s="1" r="F111">
-        <v>158.0</v>
+        <v>1731.0</v>
       </c>
       <c s="1" r="G111">
         <v>0.0</v>
@@ -6558,7 +6597,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I111">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J111">
         <v>0.0</v>
@@ -6567,10 +6606,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L111">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="M111">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N111">
         <v>0.0</v>
@@ -6584,19 +6623,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B112">
-        <v>232672.0</v>
+        <v>232706.0</v>
       </c>
       <c t="s" s="1" r="C112">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c s="1" r="D112">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E112">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c s="1" r="F112">
-        <v>1731.0</v>
+        <v>3741.0</v>
       </c>
       <c s="1" r="G112">
         <v>0.0</v>
@@ -6605,7 +6644,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I112">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J112">
         <v>0.0</v>
@@ -6614,10 +6653,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L112">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M112">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N112">
         <v>0.0</v>
@@ -6631,19 +6670,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B113">
-        <v>232706.0</v>
+        <v>231642.0</v>
       </c>
       <c t="s" s="1" r="C113">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c s="1" r="D113">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E113">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c s="1" r="F113">
-        <v>3741.0</v>
+        <v>1055.0</v>
       </c>
       <c s="1" r="G113">
         <v>0.0</v>
@@ -6681,13 +6720,13 @@
         <v>231642.0</v>
       </c>
       <c t="s" s="1" r="C114">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c s="1" r="D114">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E114">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c s="1" r="F114">
         <v>1055.0</v>
@@ -6728,13 +6767,13 @@
         <v>231642.0</v>
       </c>
       <c t="s" s="1" r="C115">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c s="1" r="D115">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E115">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c s="1" r="F115">
         <v>1055.0</v>
@@ -6772,19 +6811,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B116">
-        <v>231642.0</v>
+        <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C116">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="1" r="D116">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E116">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="1" r="F116">
-        <v>1055.0</v>
+        <v>1088.0</v>
       </c>
       <c s="1" r="G116">
         <v>0.0</v>
@@ -6822,13 +6861,13 @@
         <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C117">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c s="1" r="D117">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E117">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c s="1" r="F117">
         <v>1088.0</v>
@@ -6869,13 +6908,13 @@
         <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C118">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c s="1" r="D118">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E118">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c s="1" r="F118">
         <v>1088.0</v>
@@ -6913,19 +6952,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B119">
-        <v>131742.0</v>
+        <v>233091.0</v>
       </c>
       <c t="s" s="1" r="C119">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c s="1" r="D119">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E119">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c s="1" r="F119">
-        <v>1088.0</v>
+        <v>202.0</v>
       </c>
       <c s="1" r="G119">
         <v>0.0</v>
@@ -6960,19 +6999,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B120">
-        <v>233091.0</v>
+        <v>232788.0</v>
       </c>
       <c t="s" s="1" r="C120">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c s="1" r="D120">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E120">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c s="1" r="F120">
-        <v>202.0</v>
+        <v>2875.0</v>
       </c>
       <c s="1" r="G120">
         <v>0.0</v>
@@ -7007,19 +7046,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B121">
-        <v>232788.0</v>
+        <v>419004.0</v>
       </c>
       <c t="s" s="1" r="C121">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c s="1" r="D121">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E121">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c s="1" r="F121">
-        <v>2875.0</v>
+        <v>135.0</v>
       </c>
       <c s="1" r="G121">
         <v>0.0</v>
@@ -7054,19 +7093,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B122">
-        <v>419004.0</v>
+        <v>232867.0</v>
       </c>
       <c t="s" s="1" r="C122">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c s="1" r="D122">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E122">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c s="1" r="F122">
-        <v>135.0</v>
+        <v>4327.0</v>
       </c>
       <c s="1" r="G122">
         <v>0.0</v>
@@ -7101,19 +7140,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B123">
-        <v>232867.0</v>
+        <v>433299.0</v>
       </c>
       <c t="s" s="1" r="C123">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c s="1" r="D123">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E123">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c s="1" r="F123">
-        <v>4327.0</v>
+        <v>52.0</v>
       </c>
       <c s="1" r="G123">
         <v>0.0</v>
@@ -7148,19 +7187,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B124">
-        <v>433299.0</v>
+        <v>233417.0</v>
       </c>
       <c t="s" s="1" r="C124">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c s="1" r="D124">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E124">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c s="1" r="F124">
-        <v>52.0</v>
+        <v>45.0</v>
       </c>
       <c s="1" r="G124">
         <v>0.0</v>
@@ -7195,46 +7234,46 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B125">
-        <v>233417.0</v>
+        <v>232937.0</v>
       </c>
       <c t="s" s="1" r="C125">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c s="1" r="D125">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E125">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c s="1" r="F125">
-        <v>45.0</v>
+        <v>6846.0</v>
       </c>
       <c s="1" r="G125">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H125">
         <v>0.0</v>
       </c>
       <c s="1" r="I125">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="J125">
         <v>0.0</v>
       </c>
       <c s="1" r="K125">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c s="1" r="L125">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c s="1" r="M125">
-        <v>0.0</v>
+        <v>89.0</v>
       </c>
       <c s="1" r="N125">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c s="1" r="O125">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="126">
@@ -7242,46 +7281,46 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B126">
-        <v>232937.0</v>
+        <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C126">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c s="1" r="D126">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E126">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c s="1" r="F126">
-        <v>6846.0</v>
+        <v>38097.0</v>
       </c>
       <c s="1" r="G126">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H126">
         <v>0.0</v>
       </c>
       <c s="1" r="I126">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J126">
         <v>0.0</v>
       </c>
       <c s="1" r="K126">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L126">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M126">
-        <v>89.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N126">
-        <v>12.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="O126">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="127">
@@ -7292,13 +7331,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C127">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c s="1" r="D127">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E127">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c s="1" r="F127">
         <v>38097.0</v>
@@ -7316,16 +7355,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K127">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L127">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="M127">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N127">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O127">
         <v>0.0</v>
@@ -7339,13 +7378,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C128">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c s="1" r="D128">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E128">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c s="1" r="F128">
         <v>38097.0</v>
@@ -7366,13 +7405,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L128">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="M128">
+        <v>2.0</v>
+      </c>
+      <c s="1" r="N128">
         <v>3.0</v>
-      </c>
-      <c s="1" r="M128">
-        <v>1.0</v>
-      </c>
-      <c s="1" r="N128">
-        <v>1.0</v>
       </c>
       <c s="1" r="O128">
         <v>0.0</v>
@@ -7386,13 +7425,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C129">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c s="1" r="D129">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E129">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c s="1" r="F129">
         <v>38097.0</v>
@@ -7416,10 +7455,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M129">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N129">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O129">
         <v>0.0</v>
@@ -7433,13 +7472,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C130">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c s="1" r="D130">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E130">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c s="1" r="F130">
         <v>38097.0</v>
@@ -7466,7 +7505,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N130">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O130">
         <v>0.0</v>
@@ -7477,19 +7516,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B131">
-        <v>232946.0</v>
+        <v>232982.0</v>
       </c>
       <c t="s" s="1" r="C131">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c s="1" r="D131">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E131">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="1" r="F131">
-        <v>38097.0</v>
+        <v>20802.0</v>
       </c>
       <c s="1" r="G131">
         <v>0.0</v>
@@ -7498,22 +7537,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I131">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="J131">
         <v>0.0</v>
       </c>
       <c s="1" r="K131">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="L131">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M131">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="N131">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c s="1" r="O131">
         <v>0.0</v>
@@ -7524,19 +7563,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B132">
-        <v>232982.0</v>
+        <v>233019.0</v>
       </c>
       <c t="s" s="1" r="C132">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c s="1" r="D132">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E132">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c s="1" r="F132">
-        <v>20802.0</v>
+        <v>3492.0</v>
       </c>
       <c s="1" r="G132">
         <v>0.0</v>
@@ -7545,22 +7584,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I132">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J132">
         <v>0.0</v>
       </c>
       <c s="1" r="K132">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L132">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M132">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N132">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O132">
         <v>0.0</v>
@@ -7571,19 +7610,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B133">
-        <v>233019.0</v>
+        <v>233037.0</v>
       </c>
       <c t="s" s="1" r="C133">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c s="1" r="D133">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E133">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c s="1" r="F133">
-        <v>3492.0</v>
+        <v>1636.0</v>
       </c>
       <c s="1" r="G133">
         <v>0.0</v>
@@ -7621,13 +7660,13 @@
         <v>233037.0</v>
       </c>
       <c t="s" s="1" r="C134">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c s="1" r="D134">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E134">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c s="1" r="F134">
         <v>1636.0</v>
@@ -7665,19 +7704,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B135">
-        <v>233037.0</v>
+        <v>233116.0</v>
       </c>
       <c t="s" s="1" r="C135">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c s="1" r="D135">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E135">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c s="1" r="F135">
-        <v>1636.0</v>
+        <v>4343.0</v>
       </c>
       <c s="1" r="G135">
         <v>0.0</v>
@@ -7698,7 +7737,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M135">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c s="1" r="N135">
         <v>0.0</v>
@@ -7712,19 +7751,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B136">
-        <v>233116.0</v>
+        <v>233277.0</v>
       </c>
       <c t="s" s="1" r="C136">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c s="1" r="D136">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E136">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c s="1" r="F136">
-        <v>4343.0</v>
+        <v>9219.0</v>
       </c>
       <c s="1" r="G136">
         <v>0.0</v>
@@ -7733,7 +7772,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I136">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c s="1" r="J136">
         <v>0.0</v>
@@ -7742,13 +7781,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L136">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="M136">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="N136">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="O136">
         <v>0.0</v>
@@ -7759,19 +7798,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B137">
-        <v>233277.0</v>
+        <v>233301.0</v>
       </c>
       <c t="s" s="1" r="C137">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c s="1" r="D137">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E137">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c s="1" r="F137">
-        <v>9219.0</v>
+        <v>737.0</v>
       </c>
       <c s="1" r="G137">
         <v>0.0</v>
@@ -7780,7 +7819,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I137">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="J137">
         <v>0.0</v>
@@ -7789,13 +7828,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L137">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M137">
         <v>2.0</v>
       </c>
       <c s="1" r="N137">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O137">
         <v>0.0</v>
@@ -7806,19 +7845,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B138">
-        <v>233301.0</v>
+        <v>233295.0</v>
       </c>
       <c t="s" s="1" r="C138">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c s="1" r="D138">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E138">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c s="1" r="F138">
-        <v>737.0</v>
+        <v>1118.0</v>
       </c>
       <c s="1" r="G138">
         <v>0.0</v>
@@ -7827,7 +7866,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I138">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c s="1" r="J138">
         <v>0.0</v>
@@ -7836,10 +7875,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L138">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="M138">
-        <v>2.0</v>
+        <v>13.0</v>
       </c>
       <c s="1" r="N138">
         <v>0.0</v>
@@ -7853,19 +7892,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B139">
-        <v>233295.0</v>
+        <v>233310.0</v>
       </c>
       <c t="s" s="1" r="C139">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c s="1" r="D139">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E139">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c s="1" r="F139">
-        <v>1118.0</v>
+        <v>2824.0</v>
       </c>
       <c s="1" r="G139">
         <v>0.0</v>
@@ -7874,7 +7913,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I139">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J139">
         <v>0.0</v>
@@ -7883,10 +7922,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L139">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M139">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N139">
         <v>0.0</v>
@@ -7900,19 +7939,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B140">
-        <v>233310.0</v>
+        <v>231651.0</v>
       </c>
       <c t="s" s="1" r="C140">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c s="1" r="D140">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E140">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c s="1" r="F140">
-        <v>2824.0</v>
+        <v>3173.0</v>
       </c>
       <c s="1" r="G140">
         <v>0.0</v>
@@ -7950,13 +7989,13 @@
         <v>231651.0</v>
       </c>
       <c t="s" s="1" r="C141">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c s="1" r="D141">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E141">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c s="1" r="F141">
         <v>3173.0</v>
@@ -7994,19 +8033,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B142">
-        <v>231651.0</v>
+        <v>233338.0</v>
       </c>
       <c t="s" s="1" r="C142">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c s="1" r="D142">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E142">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c s="1" r="F142">
-        <v>3173.0</v>
+        <v>1342.0</v>
       </c>
       <c s="1" r="G142">
         <v>0.0</v>
@@ -8030,7 +8069,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N142">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O142">
         <v>0.0</v>
@@ -8041,19 +8080,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B143">
-        <v>233338.0</v>
+        <v>437769.0</v>
       </c>
       <c t="s" s="1" r="C143">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c s="1" r="D143">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E143">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c s="1" r="F143">
-        <v>1342.0</v>
+        <v>480.0</v>
       </c>
       <c s="1" r="G143">
         <v>0.0</v>
@@ -8077,7 +8116,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N143">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O143">
         <v>0.0</v>
@@ -8088,19 +8127,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B144">
-        <v>437769.0</v>
+        <v>233408.0</v>
       </c>
       <c t="s" s="1" r="C144">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c s="1" r="D144">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E144">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c s="1" r="F144">
-        <v>480.0</v>
+        <v>154.0</v>
       </c>
       <c s="1" r="G144">
         <v>0.0</v>
@@ -8135,19 +8174,16 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B145">
-        <v>233408.0</v>
+        <v>435213.0</v>
       </c>
       <c t="s" s="1" r="C145">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c s="1" r="D145">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E145">
-        <v>301</v>
-      </c>
-      <c s="1" r="F145">
-        <v>154.0</v>
+        <v>302</v>
       </c>
       <c s="1" r="G145">
         <v>0.0</v>
@@ -8182,16 +8218,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B146">
-        <v>435213.0</v>
+        <v>233426.0</v>
       </c>
       <c t="s" s="1" r="C146">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c s="1" r="D146">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E146">
-        <v>303</v>
+        <v>304</v>
+      </c>
+      <c s="1" r="F146">
+        <v>1899.0</v>
       </c>
       <c s="1" r="G146">
         <v>0.0</v>
@@ -8200,7 +8239,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I146">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J146">
         <v>0.0</v>
@@ -8212,7 +8251,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M146">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c s="1" r="N146">
         <v>0.0</v>
@@ -8226,19 +8265,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B147">
-        <v>233426.0</v>
+        <v>441876.0</v>
       </c>
       <c t="s" s="1" r="C147">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c s="1" r="D147">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E147">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c s="1" r="F147">
-        <v>1899.0</v>
+        <v>57.0</v>
       </c>
       <c s="1" r="G147">
         <v>0.0</v>
@@ -8247,7 +8286,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I147">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J147">
         <v>0.0</v>
@@ -8259,7 +8298,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M147">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N147">
         <v>0.0</v>
@@ -8273,19 +8312,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B148">
-        <v>441876.0</v>
+        <v>233499.0</v>
       </c>
       <c t="s" s="1" r="C148">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c s="1" r="D148">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E148">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c s="1" r="F148">
-        <v>57.0</v>
+        <v>475.0</v>
       </c>
       <c s="1" r="G148">
         <v>0.0</v>
@@ -8300,19 +8339,19 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K148">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L148">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c s="1" r="M148">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c s="1" r="N148">
         <v>0.0</v>
       </c>
       <c s="1" r="O148">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="149">
@@ -8320,19 +8359,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B149">
-        <v>233499.0</v>
+        <v>234216.0</v>
       </c>
       <c t="s" s="1" r="C149">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c s="1" r="D149">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E149">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c s="1" r="F149">
-        <v>475.0</v>
+        <v>609.0</v>
       </c>
       <c s="1" r="G149">
         <v>0.0</v>
@@ -8347,19 +8386,19 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K149">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L149">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M149">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N149">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O149">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="150">
@@ -8367,19 +8406,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B150">
-        <v>234216.0</v>
+        <v>232885.0</v>
       </c>
       <c t="s" s="1" r="C150">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c s="1" r="D150">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E150">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c s="1" r="F150">
-        <v>609.0</v>
+        <v>262.0</v>
       </c>
       <c s="1" r="G150">
         <v>0.0</v>
@@ -8403,7 +8442,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N150">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O150">
         <v>0.0</v>
@@ -8414,19 +8453,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B151">
-        <v>232885.0</v>
+        <v>233541.0</v>
       </c>
       <c t="s" s="1" r="C151">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c s="1" r="D151">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E151">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c s="1" r="F151">
-        <v>262.0</v>
+        <v>2851.0</v>
       </c>
       <c s="1" r="G151">
         <v>0.0</v>
@@ -8461,19 +8500,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B152">
-        <v>233541.0</v>
+        <v>261931.0</v>
       </c>
       <c t="s" s="1" r="C152">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c s="1" r="D152">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E152">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c s="1" r="F152">
-        <v>2851.0</v>
+        <v>353.0</v>
       </c>
       <c s="1" r="G152">
         <v>0.0</v>
@@ -8508,19 +8547,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B153">
-        <v>261931.0</v>
+        <v>233611.0</v>
       </c>
       <c t="s" s="1" r="C153">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c s="1" r="D153">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E153">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c s="1" r="F153">
-        <v>353.0</v>
+        <v>579.0</v>
       </c>
       <c s="1" r="G153">
         <v>0.0</v>
@@ -8529,7 +8568,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I153">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="J153">
         <v>0.0</v>
@@ -8538,7 +8577,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L153">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M153">
         <v>0.0</v>
@@ -8555,19 +8594,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B154">
-        <v>233611.0</v>
+        <v>233082.0</v>
       </c>
       <c t="s" s="1" r="C154">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c s="1" r="D154">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E154">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c s="1" r="F154">
-        <v>579.0</v>
+        <v>179.0</v>
       </c>
       <c s="1" r="G154">
         <v>0.0</v>
@@ -8576,7 +8615,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I154">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J154">
         <v>0.0</v>
@@ -8585,13 +8624,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L154">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M154">
         <v>0.0</v>
       </c>
       <c s="1" r="N154">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O154">
         <v>0.0</v>
@@ -8602,19 +8641,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B155">
-        <v>233082.0</v>
+        <v>233639.0</v>
       </c>
       <c t="s" s="1" r="C155">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c s="1" r="D155">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E155">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c s="1" r="F155">
-        <v>179.0</v>
+        <v>4894.0</v>
       </c>
       <c s="1" r="G155">
         <v>0.0</v>
@@ -8638,7 +8677,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N155">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O155">
         <v>0.0</v>
@@ -8649,19 +8688,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B156">
-        <v>233639.0</v>
+        <v>233648.0</v>
       </c>
       <c t="s" s="1" r="C156">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c s="1" r="D156">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E156">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c s="1" r="F156">
-        <v>4894.0</v>
+        <v>3993.0</v>
       </c>
       <c s="1" r="G156">
         <v>0.0</v>
@@ -8696,19 +8735,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B157">
-        <v>233648.0</v>
+        <v>233657.0</v>
       </c>
       <c t="s" s="1" r="C157">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c s="1" r="D157">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E157">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c s="1" r="F157">
-        <v>3993.0</v>
+        <v>119.0</v>
       </c>
       <c s="1" r="G157">
         <v>0.0</v>
@@ -8743,19 +8782,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B158">
-        <v>233657.0</v>
+        <v>233666.0</v>
       </c>
       <c t="s" s="1" r="C158">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c s="1" r="D158">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E158">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c s="1" r="F158">
-        <v>119.0</v>
+        <v>26.0</v>
       </c>
       <c s="1" r="G158">
         <v>0.0</v>
@@ -8790,19 +8829,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B159">
-        <v>233666.0</v>
+        <v>438498.0</v>
       </c>
       <c t="s" s="1" r="C159">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c s="1" r="D159">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E159">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c s="1" r="F159">
-        <v>26.0</v>
+        <v>641.0</v>
       </c>
       <c s="1" r="G159">
         <v>0.0</v>
@@ -8837,19 +8876,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B160">
-        <v>438498.0</v>
+        <v>231721.0</v>
       </c>
       <c t="s" s="1" r="C160">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c s="1" r="D160">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E160">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c s="1" r="F160">
-        <v>641.0</v>
+        <v>32.0</v>
       </c>
       <c s="1" r="G160">
         <v>0.0</v>
@@ -8884,19 +8923,16 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B161">
-        <v>231721.0</v>
+        <v>232593.0</v>
       </c>
       <c t="s" s="1" r="C161">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c s="1" r="D161">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E161">
-        <v>333</v>
-      </c>
-      <c s="1" r="F161">
-        <v>32.0</v>
+        <v>334</v>
       </c>
       <c s="1" r="G161">
         <v>0.0</v>
@@ -8931,16 +8967,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B162">
-        <v>232593.0</v>
+        <v>233718.0</v>
       </c>
       <c t="s" s="1" r="C162">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c s="1" r="D162">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E162">
-        <v>335</v>
+        <v>336</v>
+      </c>
+      <c s="1" r="F162">
+        <v>709.0</v>
       </c>
       <c s="1" r="G162">
         <v>0.0</v>
@@ -8949,7 +8988,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I162">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J162">
         <v>0.0</v>
@@ -8975,19 +9014,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B163">
-        <v>233718.0</v>
+        <v>233286.0</v>
       </c>
       <c t="s" s="1" r="C163">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c s="1" r="D163">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E163">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c s="1" r="F163">
-        <v>709.0</v>
+        <v>22.0</v>
       </c>
       <c s="1" r="G163">
         <v>0.0</v>
@@ -8996,7 +9035,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I163">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J163">
         <v>0.0</v>
@@ -9022,19 +9061,16 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B164">
-        <v>233286.0</v>
+        <v>444884.0</v>
       </c>
       <c t="s" s="1" r="C164">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c s="1" r="D164">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E164">
-        <v>339</v>
-      </c>
-      <c s="1" r="F164">
-        <v>22.0</v>
+        <v>340</v>
       </c>
       <c s="1" r="G164">
         <v>0.0</v>
@@ -9069,16 +9105,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B165">
-        <v>444884.0</v>
+        <v>248970.0</v>
       </c>
       <c t="s" s="1" r="C165">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c s="1" r="D165">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E165">
-        <v>341</v>
+        <v>342</v>
+      </c>
+      <c s="1" r="F165">
+        <v>289.0</v>
       </c>
       <c s="1" r="G165">
         <v>0.0</v>
@@ -9113,19 +9152,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B166">
-        <v>248970.0</v>
+        <v>440341.0</v>
       </c>
       <c t="s" s="1" r="C166">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c s="1" r="D166">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E166">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c s="1" r="F166">
-        <v>289.0</v>
+        <v>852.0</v>
       </c>
       <c s="1" r="G166">
         <v>0.0</v>
@@ -9160,19 +9199,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B167">
-        <v>440341.0</v>
+        <v>233897.0</v>
       </c>
       <c t="s" s="1" r="C167">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c s="1" r="D167">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E167">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c s="1" r="F167">
-        <v>852.0</v>
+        <v>1703.0</v>
       </c>
       <c s="1" r="G167">
         <v>0.0</v>
@@ -9193,7 +9232,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M167">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="N167">
         <v>0.0</v>
@@ -9207,19 +9246,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B168">
-        <v>233897.0</v>
+        <v>233754.0</v>
       </c>
       <c t="s" s="1" r="C168">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c s="1" r="D168">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E168">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c s="1" r="F168">
-        <v>1703.0</v>
+        <v>7889.0</v>
       </c>
       <c s="1" r="G168">
         <v>0.0</v>
@@ -9240,10 +9279,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M168">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N168">
         <v>2.0</v>
-      </c>
-      <c s="1" r="N168">
-        <v>0.0</v>
       </c>
       <c s="1" r="O168">
         <v>0.0</v>
@@ -9254,19 +9293,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B169">
-        <v>233754.0</v>
+        <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C169">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c s="1" r="D169">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E169">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c s="1" r="F169">
-        <v>7889.0</v>
+        <v>23088.0</v>
       </c>
       <c s="1" r="G169">
         <v>0.0</v>
@@ -9290,7 +9329,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N169">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O169">
         <v>0.0</v>
@@ -9304,13 +9343,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C170">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c s="1" r="D170">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E170">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c s="1" r="F170">
         <v>23088.0</v>
@@ -9325,7 +9364,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="J170">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="K170">
         <v>0.0</v>
@@ -9351,13 +9390,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C171">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c s="1" r="D171">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E171">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c s="1" r="F171">
         <v>23088.0</v>
@@ -9369,10 +9408,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I171">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J171">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="K171">
         <v>0.0</v>
@@ -9381,10 +9420,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M171">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N171">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O171">
         <v>0.0</v>
@@ -9398,13 +9437,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C172">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c s="1" r="D172">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E172">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c s="1" r="F172">
         <v>23088.0</v>
@@ -9416,7 +9455,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I172">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J172">
         <v>0.0</v>
@@ -9428,7 +9467,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M172">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N172">
         <v>1.0</v>
@@ -9445,13 +9484,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C173">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c s="1" r="D173">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E173">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c s="1" r="F173">
         <v>23088.0</v>
@@ -9478,7 +9517,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N173">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O173">
         <v>0.0</v>
@@ -9489,19 +9528,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B174">
-        <v>233772.0</v>
+        <v>232919.0</v>
       </c>
       <c t="s" s="1" r="C174">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c s="1" r="D174">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E174">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c s="1" r="F174">
-        <v>23088.0</v>
+        <v>63.0</v>
       </c>
       <c s="1" r="G174">
         <v>0.0</v>
@@ -9536,19 +9575,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B175">
-        <v>232919.0</v>
+        <v>233842.0</v>
       </c>
       <c t="s" s="1" r="C175">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c s="1" r="D175">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E175">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c s="1" r="F175">
-        <v>63.0</v>
+        <v>384.0</v>
       </c>
       <c s="1" r="G175">
         <v>0.0</v>
@@ -9586,13 +9625,13 @@
         <v>233842.0</v>
       </c>
       <c t="s" s="1" r="C176">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c s="1" r="D176">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E176">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c s="1" r="F176">
         <v>384.0</v>
@@ -9604,7 +9643,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I176">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J176">
         <v>0.0</v>
@@ -9616,7 +9655,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M176">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c s="1" r="N176">
         <v>0.0</v>
@@ -9630,46 +9669,46 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B177">
-        <v>233842.0</v>
+        <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C177">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c s="1" r="D177">
+        <v>1.0</v>
+      </c>
+      <c t="s" s="1" r="E177">
+        <v>366</v>
+      </c>
+      <c s="1" r="F177">
+        <v>4792.0</v>
+      </c>
+      <c s="1" r="G177">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H177">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I177">
+        <v>1.0</v>
+      </c>
+      <c s="1" r="J177">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="K177">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="L177">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="M177">
+        <v>1.0</v>
+      </c>
+      <c s="1" r="N177">
         <v>2.0</v>
       </c>
-      <c t="s" s="1" r="E177">
-        <v>365</v>
-      </c>
-      <c s="1" r="F177">
-        <v>384.0</v>
-      </c>
-      <c s="1" r="G177">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H177">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I177">
-        <v>1.0</v>
-      </c>
-      <c s="1" r="J177">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="K177">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="L177">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="M177">
-        <v>21.0</v>
-      </c>
-      <c s="1" r="N177">
-        <v>0.0</v>
-      </c>
       <c s="1" r="O177">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="178">
@@ -9677,19 +9716,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B178">
-        <v>232681.0</v>
+        <v>442189.0</v>
       </c>
       <c t="s" s="1" r="C178">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c s="1" r="D178">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E178">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c s="1" r="F178">
-        <v>4792.0</v>
+        <v>645.0</v>
       </c>
       <c s="1" r="G178">
         <v>0.0</v>
@@ -9698,7 +9737,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I178">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J178">
         <v>0.0</v>
@@ -9710,13 +9749,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M178">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N178">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O178">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="179">
@@ -9724,19 +9763,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B179">
-        <v>442189.0</v>
+        <v>233374.0</v>
       </c>
       <c t="s" s="1" r="C179">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c s="1" r="D179">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E179">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c s="1" r="F179">
-        <v>645.0</v>
+        <v>4444.0</v>
       </c>
       <c s="1" r="G179">
         <v>0.0</v>
@@ -9745,7 +9784,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I179">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="J179">
         <v>0.0</v>
@@ -9754,16 +9793,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L179">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="M179">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c s="1" r="N179">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="O179">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="180">
@@ -9771,19 +9810,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B180">
-        <v>233374.0</v>
+        <v>442639.0</v>
       </c>
       <c t="s" s="1" r="C180">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c s="1" r="D180">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E180">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c s="1" r="F180">
-        <v>4444.0</v>
+        <v>64.0</v>
       </c>
       <c s="1" r="G180">
         <v>0.0</v>
@@ -9792,7 +9831,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I180">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J180">
         <v>0.0</v>
@@ -9801,16 +9840,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L180">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M180">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N180">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O180">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="181">
@@ -9818,19 +9857,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B181">
-        <v>442639.0</v>
+        <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C181">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c s="1" r="D181">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E181">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c s="1" r="F181">
-        <v>64.0</v>
+        <v>23077.0</v>
       </c>
       <c s="1" r="G181">
         <v>0.0</v>
@@ -9839,22 +9878,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I181">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c s="1" r="J181">
         <v>0.0</v>
       </c>
       <c s="1" r="K181">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="L181">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="M181">
-        <v>0.0</v>
+        <v>82.0</v>
       </c>
       <c s="1" r="N181">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="O181">
         <v>0.0</v>
@@ -9868,13 +9907,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C182">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c s="1" r="D182">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E182">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c s="1" r="F182">
         <v>23077.0</v>
@@ -9886,22 +9925,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I182">
-        <v>23.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J182">
         <v>0.0</v>
       </c>
       <c s="1" r="K182">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L182">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M182">
-        <v>82.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N182">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O182">
         <v>0.0</v>
@@ -9915,13 +9954,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C183">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c s="1" r="D183">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E183">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c s="1" r="F183">
         <v>23077.0</v>
@@ -9962,13 +10001,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C184">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c s="1" r="D184">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E184">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c s="1" r="F184">
         <v>23077.0</v>
@@ -10009,13 +10048,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C185">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c s="1" r="D185">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E185">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c s="1" r="F185">
         <v>23077.0</v>
@@ -10056,13 +10095,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C186">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c s="1" r="D186">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E186">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c s="1" r="F186">
         <v>23077.0</v>
@@ -10103,13 +10142,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C187">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c s="1" r="D187">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E187">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c s="1" r="F187">
         <v>23077.0</v>
@@ -10150,13 +10189,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C188">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c s="1" r="D188">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E188">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c s="1" r="F188">
         <v>23077.0</v>
@@ -10194,19 +10233,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B189">
-        <v>234076.0</v>
+        <v>377485.0</v>
       </c>
       <c t="s" s="1" r="C189">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c s="1" r="D189">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E189">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c s="1" r="F189">
-        <v>23077.0</v>
+        <v>23.0</v>
       </c>
       <c s="1" r="G189">
         <v>0.0</v>
@@ -10241,19 +10280,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B190">
-        <v>377485.0</v>
+        <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C190">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c s="1" r="D190">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E190">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c s="1" r="F190">
-        <v>23.0</v>
+        <v>26631.0</v>
       </c>
       <c s="1" r="G190">
         <v>0.0</v>
@@ -10262,25 +10301,25 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I190">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="J190">
         <v>0.0</v>
       </c>
       <c s="1" r="K190">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c s="1" r="L190">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="M190">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c s="1" r="N190">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="O190">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="191">
@@ -10291,13 +10330,13 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C191">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c s="1" r="D191">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E191">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c s="1" r="F191">
         <v>26631.0</v>
@@ -10309,25 +10348,25 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I191">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="J191">
         <v>0.0</v>
       </c>
       <c s="1" r="K191">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="L191">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c s="1" r="M191">
-        <v>13.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N191">
         <v>3.0</v>
       </c>
       <c s="1" r="O191">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="192">
@@ -10335,19 +10374,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B192">
-        <v>234030.0</v>
+        <v>233903.0</v>
       </c>
       <c t="s" s="1" r="C192">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c s="1" r="D192">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E192">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c s="1" r="F192">
-        <v>26631.0</v>
+        <v>2345.0</v>
       </c>
       <c s="1" r="G192">
         <v>0.0</v>
@@ -10356,22 +10395,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I192">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J192">
         <v>0.0</v>
       </c>
       <c s="1" r="K192">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L192">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M192">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N192">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O192">
         <v>0.0</v>
@@ -10382,19 +10421,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B193">
-        <v>233903.0</v>
+        <v>233912.0</v>
       </c>
       <c t="s" s="1" r="C193">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c s="1" r="D193">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E193">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c s="1" r="F193">
-        <v>2345.0</v>
+        <v>1124.0</v>
       </c>
       <c s="1" r="G193">
         <v>0.0</v>
@@ -10429,19 +10468,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B194">
-        <v>233912.0</v>
+        <v>234085.0</v>
       </c>
       <c t="s" s="1" r="C194">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c s="1" r="D194">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E194">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c s="1" r="F194">
-        <v>1124.0</v>
+        <v>1333.0</v>
       </c>
       <c s="1" r="G194">
         <v>0.0</v>
@@ -10450,7 +10489,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I194">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J194">
         <v>0.0</v>
@@ -10459,10 +10498,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L194">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M194">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c s="1" r="N194">
         <v>0.0</v>
@@ -10476,19 +10515,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B195">
-        <v>234085.0</v>
+        <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C195">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c s="1" r="D195">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E195">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c s="1" r="F195">
-        <v>1333.0</v>
+        <v>27755.0</v>
       </c>
       <c s="1" r="G195">
         <v>0.0</v>
@@ -10497,22 +10536,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I195">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="J195">
         <v>0.0</v>
       </c>
       <c s="1" r="K195">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L195">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="M195">
-        <v>21.0</v>
+        <v>31.0</v>
       </c>
       <c s="1" r="N195">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O195">
         <v>0.0</v>
@@ -10526,13 +10565,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C196">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c s="1" r="D196">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E196">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c s="1" r="F196">
         <v>27755.0</v>
@@ -10544,22 +10583,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I196">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J196">
         <v>0.0</v>
       </c>
       <c s="1" r="K196">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L196">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M196">
-        <v>31.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N196">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O196">
         <v>0.0</v>
@@ -10573,13 +10612,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C197">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c s="1" r="D197">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E197">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c s="1" r="F197">
         <v>27755.0</v>
@@ -10620,13 +10659,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C198">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c s="1" r="D198">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E198">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c s="1" r="F198">
         <v>27755.0</v>
@@ -10667,13 +10706,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C199">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c s="1" r="D199">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E199">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c s="1" r="F199">
         <v>27755.0</v>
@@ -10714,13 +10753,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C200">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c s="1" r="D200">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E200">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c s="1" r="F200">
         <v>27755.0</v>
@@ -10761,13 +10800,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C201">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c s="1" r="D201">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E201">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c s="1" r="F201">
         <v>27755.0</v>
@@ -10808,13 +10847,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C202">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c s="1" r="D202">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E202">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c s="1" r="F202">
         <v>27755.0</v>
@@ -10852,19 +10891,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B203">
-        <v>233921.0</v>
+        <v>234119.0</v>
       </c>
       <c t="s" s="1" r="C203">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c s="1" r="D203">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E203">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c s="1" r="F203">
-        <v>27755.0</v>
+        <v>100.0</v>
       </c>
       <c s="1" r="G203">
         <v>0.0</v>
@@ -10899,19 +10938,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B204">
-        <v>234119.0</v>
+        <v>430254.0</v>
       </c>
       <c t="s" s="1" r="C204">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c s="1" r="D204">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E204">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c s="1" r="F204">
-        <v>100.0</v>
+        <v>427.0</v>
       </c>
       <c s="1" r="G204">
         <v>0.0</v>
@@ -10946,19 +10985,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B205">
-        <v>430254.0</v>
+        <v>234155.0</v>
       </c>
       <c t="s" s="1" r="C205">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c s="1" r="D205">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E205">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c s="1" r="F205">
-        <v>427.0</v>
+        <v>4933.0</v>
       </c>
       <c s="1" r="G205">
         <v>0.0</v>
@@ -10967,22 +11006,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I205">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J205">
         <v>0.0</v>
       </c>
       <c s="1" r="K205">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="L205">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="M205">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="N205">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="O205">
         <v>0.0</v>
@@ -10993,19 +11032,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B206">
-        <v>234155.0</v>
+        <v>234164.0</v>
       </c>
       <c t="s" s="1" r="C206">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c s="1" r="D206">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E206">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c s="1" r="F206">
-        <v>4933.0</v>
+        <v>1961.0</v>
       </c>
       <c s="1" r="G206">
         <v>0.0</v>
@@ -11014,22 +11053,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I206">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J206">
         <v>0.0</v>
       </c>
       <c s="1" r="K206">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L206">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M206">
-        <v>4.0</v>
+        <v>22.0</v>
       </c>
       <c s="1" r="N206">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O206">
         <v>0.0</v>
@@ -11040,19 +11079,16 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B207">
-        <v>234164.0</v>
+        <v>234137.0</v>
       </c>
       <c t="s" s="1" r="C207">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c s="1" r="D207">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E207">
-        <v>425</v>
-      </c>
-      <c s="1" r="F207">
-        <v>1961.0</v>
+        <v>426</v>
       </c>
       <c s="1" r="G207">
         <v>0.0</v>
@@ -11070,10 +11106,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L207">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M207">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N207">
         <v>0.0</v>
@@ -11087,16 +11123,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B208">
-        <v>234137.0</v>
+        <v>234173.0</v>
       </c>
       <c t="s" s="1" r="C208">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c s="1" r="D208">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E208">
-        <v>427</v>
+        <v>428</v>
+      </c>
+      <c s="1" r="F208">
+        <v>1429.0</v>
       </c>
       <c s="1" r="G208">
         <v>0.0</v>
@@ -11105,7 +11144,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I208">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="J208">
         <v>0.0</v>
@@ -11131,19 +11170,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B209">
-        <v>234173.0</v>
+        <v>233949.0</v>
       </c>
       <c t="s" s="1" r="C209">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c s="1" r="D209">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E209">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c s="1" r="F209">
-        <v>1429.0</v>
+        <v>8124.0</v>
       </c>
       <c s="1" r="G209">
         <v>0.0</v>
@@ -11152,7 +11191,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I209">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J209">
         <v>0.0</v>
@@ -11178,19 +11217,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B210">
-        <v>233949.0</v>
+        <v>234191.0</v>
       </c>
       <c t="s" s="1" r="C210">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c s="1" r="D210">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E210">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c s="1" r="F210">
-        <v>8124.0</v>
+        <v>109.0</v>
       </c>
       <c s="1" r="G210">
         <v>0.0</v>
@@ -11228,13 +11267,13 @@
         <v>234191.0</v>
       </c>
       <c t="s" s="1" r="C211">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c s="1" r="D211">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E211">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c s="1" r="F211">
         <v>109.0</v>
@@ -11272,19 +11311,16 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B212">
-        <v>234191.0</v>
+        <v>445683.0</v>
       </c>
       <c t="s" s="1" r="C212">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c s="1" r="D212">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E212">
-        <v>435</v>
-      </c>
-      <c s="1" r="F212">
-        <v>109.0</v>
+        <v>436</v>
       </c>
       <c s="1" r="G212">
         <v>0.0</v>
@@ -11319,16 +11355,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B213">
-        <v>445683.0</v>
+        <v>234207.0</v>
       </c>
       <c t="s" s="1" r="C213">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c s="1" r="D213">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E213">
-        <v>437</v>
+        <v>438</v>
+      </c>
+      <c s="1" r="F213">
+        <v>2137.0</v>
       </c>
       <c s="1" r="G213">
         <v>0.0</v>
@@ -11349,7 +11388,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M213">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="N213">
         <v>0.0</v>
@@ -11363,19 +11402,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B214">
-        <v>234207.0</v>
+        <v>234225.0</v>
       </c>
       <c t="s" s="1" r="C214">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c s="1" r="D214">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E214">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c s="1" r="F214">
-        <v>2137.0</v>
+        <v>150.0</v>
       </c>
       <c s="1" r="G214">
         <v>0.0</v>
@@ -11396,7 +11435,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M214">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N214">
         <v>0.0</v>
@@ -11410,19 +11449,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B215">
-        <v>234225.0</v>
+        <v>234359.0</v>
       </c>
       <c t="s" s="1" r="C215">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c s="1" r="D215">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E215">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c s="1" r="F215">
-        <v>150.0</v>
+        <v>273.0</v>
       </c>
       <c s="1" r="G215">
         <v>0.0</v>
@@ -11457,19 +11496,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B216">
-        <v>234359.0</v>
+        <v>234377.0</v>
       </c>
       <c t="s" s="1" r="C216">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c s="1" r="D216">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E216">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c s="1" r="F216">
-        <v>273.0</v>
+        <v>2948.0</v>
       </c>
       <c s="1" r="G216">
         <v>0.0</v>
@@ -11496,53 +11535,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="O216">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="217">
-      <c s="1" r="A217">
-        <v>2003.0</v>
-      </c>
-      <c s="1" r="B217">
-        <v>234377.0</v>
-      </c>
-      <c t="s" s="1" r="C217">
-        <v>444</v>
-      </c>
-      <c s="1" r="D217">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="1" r="E217">
-        <v>445</v>
-      </c>
-      <c s="1" r="F217">
-        <v>2948.0</v>
-      </c>
-      <c s="1" r="G217">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H217">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I217">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="J217">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="K217">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="L217">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="M217">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N217">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="O217">
         <v>0.0</v>
       </c>
     </row>
